--- a/results/mp/logistic/corona/confidence/168/masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,33 +49,33 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
+    <t>drop</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -94,21 +94,15 @@
     <t>of</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -127,91 +121,85 @@
     <t>hand</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>your</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
     <t>and</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
   <si>
     <t>?</t>
@@ -575,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -694,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.791095890410959</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C4">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D4">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,19 +700,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.835509138381201</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L7">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M7">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5661375661375662</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C8">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -944,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.559322033898305</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.8297872340425532</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5387596899224806</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C10">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5098039215686274</v>
+        <v>0.5368217054263565</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>277</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>277</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.7875</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L11">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="M11">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4899328859060403</v>
+        <v>0.5302013422818792</v>
       </c>
       <c r="C12">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D12">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.7804878048780488</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.44</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.78125</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1182,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4222222222222222</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C14">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.7746478873239436</v>
+        <v>0.775</v>
       </c>
       <c r="L14">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="M14">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1265,16 +1253,16 @@
         <v>63</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>0.7358490566037735</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L15">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1282,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2658730158730159</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="C16">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1312,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>0.717948717948718</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1344,13 +1332,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1796246648793566</v>
+        <v>0.1528150134048257</v>
       </c>
       <c r="C17">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D17">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1362,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>0.7142857142857143</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1386,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1394,13 +1382,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.09</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1412,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>0.7</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1436,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,37 +1432,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01904454486765655</v>
+        <v>0.01615508885298869</v>
       </c>
       <c r="C19">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E19">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="F19">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>3039</v>
+        <v>3045</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.6976744186046512</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1486,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1494,37 +1482,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01853411962931761</v>
+        <v>0.01520912547528517</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F20">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.6944444444444444</v>
+        <v>0.725</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1544,37 +1532,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01498829039812646</v>
+        <v>0.009375</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E21">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="F21">
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>2103</v>
+        <v>5072</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1586,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1594,37 +1582,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0108837614279495</v>
+        <v>0.008886810102899906</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="E22">
-        <v>0.32</v>
+        <v>0.58</v>
       </c>
       <c r="F22">
-        <v>0.6799999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2272</v>
+        <v>4238</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>0.638235294117647</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L22">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1636,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>123</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1644,37 +1632,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.009923045767517213</v>
+        <v>0.007875605815831988</v>
       </c>
       <c r="C23">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D23">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E23">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="F23">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>4889</v>
+        <v>4913</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>0.6307692307692307</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1686,95 +1674,47 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.00857365549493375</v>
-      </c>
-      <c r="C24">
-        <v>44</v>
-      </c>
-      <c r="D24">
-        <v>77</v>
-      </c>
-      <c r="E24">
-        <v>0.43</v>
-      </c>
-      <c r="F24">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>5088</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>0.6067796610169491</v>
+        <v>0.608843537414966</v>
       </c>
       <c r="L24">
         <v>179</v>
       </c>
       <c r="M24">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.008385744234800839</v>
-      </c>
-      <c r="C25">
-        <v>36</v>
-      </c>
-      <c r="D25">
-        <v>71</v>
-      </c>
-      <c r="E25">
-        <v>0.49</v>
-      </c>
-      <c r="F25">
-        <v>0.51</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>4257</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>0.5941422594142259</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L25">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="M25">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1786,21 +1726,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>97</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K26">
-        <v>0.5851063829787234</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="L26">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M26">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1812,21 +1752,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K27">
-        <v>0.5600000000000001</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1838,21 +1778,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K28">
-        <v>0.5571428571428572</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1864,21 +1804,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K29">
-        <v>0.5280898876404494</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L29">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1890,21 +1830,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K30">
-        <v>0.5098039215686274</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1916,21 +1856,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K31">
-        <v>0.3717948717948718</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1942,21 +1882,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K32">
-        <v>0.3698630136986301</v>
+        <v>0.05484460694698354</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1968,137 +1908,137 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K33">
-        <v>0.04765886287625418</v>
+        <v>0.05425709515859766</v>
       </c>
       <c r="L33">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M33">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="N33">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>1139</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K34">
-        <v>0.01883948756593821</v>
+        <v>0.01540774145058249</v>
       </c>
       <c r="L34">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M34">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="N34">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="O34">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>2604</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K35">
-        <v>0.01704545454545454</v>
+        <v>0.01254705144291092</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N35">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="O35">
-        <v>0.27</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>1557</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="K36">
-        <v>0.01522633744855967</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="L36">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="M36">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="N36">
-        <v>0.71</v>
+        <v>0.58</v>
       </c>
       <c r="O36">
-        <v>0.29</v>
+        <v>0.42</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>2393</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K37">
-        <v>0.01462599247806101</v>
+        <v>0.009736180904522614</v>
       </c>
       <c r="L37">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>0.65</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>2358</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2106,103 +2046,51 @@
         <v>28</v>
       </c>
       <c r="K38">
-        <v>0.0117242773398019</v>
+        <v>0.008876336493847085</v>
       </c>
       <c r="L38">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M38">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="N38">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="O38">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>4889</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="K39">
-        <v>0.01162425384857053</v>
+        <v>0.008794215360562829</v>
       </c>
       <c r="L39">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="N39">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
       <c r="O39">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>3146</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
-      <c r="J40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K40">
-        <v>0.008154706430568499</v>
-      </c>
-      <c r="L40">
-        <v>35</v>
-      </c>
-      <c r="M40">
-        <v>71</v>
-      </c>
-      <c r="N40">
-        <v>0.49</v>
-      </c>
-      <c r="O40">
-        <v>0.51</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>4257</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K41">
-        <v>0.006444053895723492</v>
-      </c>
-      <c r="L41">
-        <v>33</v>
-      </c>
-      <c r="M41">
-        <v>77</v>
-      </c>
-      <c r="N41">
-        <v>0.43</v>
-      </c>
-      <c r="O41">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>5088</v>
+        <v>5072</v>
       </c>
     </row>
   </sheetData>
